--- a/data/input/DOC_20230111_EN695_wData20230208.xlsx
+++ b/data/input/DOC_20230111_EN695_wData20230208.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA27B28-CA8B-4C50-AEF3-BB22A5538DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31035F6A-AA7C-49AC-85C6-330872DA471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27990" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t>cast</t>
   </si>
   <si>
-    <t>C abnormally high compared to other depths. CTD does not show any anomalous water mass or chl. N appears reasonable</t>
+    <t>C abnormally high compared to other depths esp offshore. CTD does not show any anomalous water mass or chl. N appears reasonable. Seems likely C was contaminated</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1762,7 @@
         <v>70</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17">
         <v>1</v>

--- a/data/input/DOC_20230111_EN695_wData20230208.xlsx
+++ b/data/input/DOC_20230111_EN695_wData20230208.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31035F6A-AA7C-49AC-85C6-330872DA471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C636E92A-23D7-4E3B-AC62-6D4100E90D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
   <si>
     <t>L1</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>C abnormally high compared to other depths esp offshore. CTD does not show any anomalous water mass or chl. N appears reasonable. Seems likely C was contaminated</t>
+  </si>
+  <si>
+    <t>N significantly higher than most other 100m ish depths but this is bottom water and CTDcontour shows foot of front so high value believeable</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,6 +1864,9 @@
       <c r="J19" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
       <c r="L19">
         <v>1</v>
       </c>
